--- a/medicine/Sexualité et sexologie/Journal_of_Sex_Research/Journal_of_Sex_Research.xlsx
+++ b/medicine/Sexualité et sexologie/Journal_of_Sex_Research/Journal_of_Sex_Research.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal of Sex Research est une revue universitaire évaluée par les pairs couvrant l'étude de la sexualité humaine et le domaine de la sexologie en général. Il est publié par Routledge pour le compte de Society for the Scientific Study of Sexuality (en). En 1963, la société publie un numéro intitulé Advances in Sex Research. Le Journal of Sex Research est publié pour la première fois en 1965. Le rédacteur en chef actuel est Cynthia A. Graham (Université de Southampton).
